--- a/new vikor.xlsx
+++ b/new vikor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaf63844dbb81ea/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{142C888A-809D-4055-8A23-DBE58B1933A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2435D24-7C27-4C69-B74E-EB974E8911A0}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{142C888A-809D-4055-8A23-DBE58B1933A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E3EAC6-D49F-4D19-A225-F153E1D7A237}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8532" yWindow="4056" windowWidth="12120" windowHeight="8880" xr2:uid="{089C9E7A-C347-439A-9D85-469C98A6A0FA}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{089C9E7A-C347-439A-9D85-469C98A6A0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>criterian</t>
   </si>
@@ -68,12 +67,6 @@
   </si>
   <si>
     <t>weights</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
   </si>
   <si>
     <t>diff</t>
@@ -116,6 +109,24 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>S+,R+</t>
+  </si>
+  <si>
+    <t>S-,R-</t>
+  </si>
+  <si>
+    <t>TOPSIS</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>non-ideal</t>
+  </si>
+  <si>
+    <t>tosis</t>
   </si>
 </sst>
 </file>
@@ -179,13 +190,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -289,58 +305,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,37 +405,37 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -428,16 +444,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,58 +1183,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,37 +1271,37 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -1294,16 +1310,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1353,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1346,28 +1362,28 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
@@ -1385,7 +1401,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -1601,6 +1617,648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37615966754155733"/>
+          <c:y val="6.4814814814814811E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED86-4BFD-BC3C-F69959182CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED86-4BFD-BC3C-F69959182CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ED86-4BFD-BC3C-F69959182CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED86-4BFD-BC3C-F69959182CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$5:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ED86-4BFD-BC3C-F69959182CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="643805520"/>
+        <c:axId val="643803856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643805520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643803856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643803856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643805520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1721,6 +2379,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2741,6 +3439,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3366,15 +4580,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421FA089-9103-4465-9FBF-EE7B5845F0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3674,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDC39FE-B8A3-4F12-A66A-4A9013F63135}">
-  <dimension ref="G4:T74"/>
+  <dimension ref="G4:AQ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AM45" sqref="AM45"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3690,7 +4932,7 @@
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +4946,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -3723,17 +4965,20 @@
       <c r="L5" t="s">
         <v>8</v>
       </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s">
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>1</v>
       </c>
@@ -3752,17 +4997,23 @@
       <c r="L6">
         <v>3</v>
       </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
       <c r="Q6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R6">
         <v>6</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>2</v>
       </c>
@@ -3781,17 +5032,23 @@
       <c r="L7">
         <v>2</v>
       </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
       <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
         <v>8</v>
       </c>
-      <c r="R7">
-        <v>8</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
+      <c r="U7">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>3</v>
       </c>
@@ -3810,17 +5067,23 @@
       <c r="L8">
         <v>4</v>
       </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
       <c r="Q8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="S8">
-        <v>9</v>
+      <c r="U8">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>4</v>
       </c>
@@ -3839,17 +5102,26 @@
       <c r="L9">
         <v>5</v>
       </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="R9">
         <v>12</v>
       </c>
       <c r="S9">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="U9">
+        <v>22</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>5</v>
       </c>
@@ -3868,17 +5140,26 @@
       <c r="L10">
         <v>3</v>
       </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>38</v>
+      </c>
+      <c r="AM10">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>6</v>
       </c>
@@ -3897,17 +5178,26 @@
       <c r="L11">
         <v>6</v>
       </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
       <c r="Q11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="R11">
+        <v>15</v>
+      </c>
+      <c r="S11">
         <v>16</v>
       </c>
-      <c r="S11">
-        <v>14</v>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="AM11">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>7</v>
       </c>
@@ -3926,17 +5216,26 @@
       <c r="L12">
         <v>3</v>
       </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
       <c r="Q12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R12">
         <v>14</v>
       </c>
       <c r="S12">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <v>24</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>8</v>
       </c>
@@ -3955,17 +5254,26 @@
       <c r="L13">
         <v>5</v>
       </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
       <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
+      <c r="U13">
+        <v>38</v>
+      </c>
+      <c r="AM13">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>9</v>
       </c>
@@ -3984,8 +5292,11 @@
       <c r="L14">
         <v>2</v>
       </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
       <c r="Q14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R14">
         <v>13</v>
@@ -3993,8 +5304,14 @@
       <c r="S14">
         <v>12</v>
       </c>
+      <c r="U14">
+        <v>26</v>
+      </c>
+      <c r="AM14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>10</v>
       </c>
@@ -4013,17 +5330,26 @@
       <c r="L15">
         <v>3</v>
       </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
       <c r="Q15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S15">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <v>18</v>
+      </c>
+      <c r="AM15">
+        <v>16</v>
       </c>
     </row>
-    <row r="16" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:39" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>11</v>
       </c>
@@ -4042,17 +5368,26 @@
       <c r="L16">
         <v>6</v>
       </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
       <c r="Q16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S16">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>24</v>
+      </c>
+      <c r="AM16">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>12</v>
       </c>
@@ -4071,17 +5406,26 @@
       <c r="L17">
         <v>5</v>
       </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
       <c r="Q17">
         <v>11</v>
       </c>
       <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
         <v>9</v>
       </c>
-      <c r="S17">
-        <v>8</v>
+      <c r="U17">
+        <v>30</v>
+      </c>
+      <c r="AM17">
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>13</v>
       </c>
@@ -4100,8 +5444,11 @@
       <c r="L18">
         <v>1</v>
       </c>
+      <c r="P18">
+        <v>13</v>
+      </c>
       <c r="Q18">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -4109,8 +5456,14 @@
       <c r="S18">
         <v>1</v>
       </c>
+      <c r="U18">
+        <v>55</v>
+      </c>
+      <c r="AM18">
+        <v>13</v>
+      </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>14</v>
       </c>
@@ -4129,17 +5482,26 @@
       <c r="L19">
         <v>3</v>
       </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
       <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
         <v>9</v>
-      </c>
-      <c r="R19">
-        <v>7</v>
       </c>
       <c r="S19">
         <v>7</v>
       </c>
+      <c r="U19">
+        <v>39</v>
+      </c>
+      <c r="AM19">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>15</v>
       </c>
@@ -4159,22 +5521,31 @@
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R20">
         <v>17</v>
       </c>
       <c r="S20">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+      <c r="AM20">
+        <v>15</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>16</v>
       </c>
@@ -4199,8 +5570,11 @@
       <c r="O21">
         <v>0.5</v>
       </c>
+      <c r="P21">
+        <v>16</v>
+      </c>
       <c r="Q21">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>18</v>
@@ -4208,8 +5582,14 @@
       <c r="S21">
         <v>18</v>
       </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="AM21">
+        <v>9</v>
+      </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>17</v>
       </c>
@@ -4228,17 +5608,26 @@
       <c r="L22">
         <v>2</v>
       </c>
+      <c r="P22">
+        <v>17</v>
+      </c>
       <c r="Q22">
+        <v>16</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
         <v>4</v>
       </c>
-      <c r="R22">
-        <v>3</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
+      <c r="U22">
+        <v>55</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>18</v>
       </c>
@@ -4257,17 +5646,26 @@
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="P23">
+        <v>18</v>
+      </c>
       <c r="Q23">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23">
         <v>2</v>
       </c>
+      <c r="U23">
+        <v>48</v>
+      </c>
+      <c r="AM23">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>9</v>
       </c>
@@ -4286,15 +5684,25 @@
       <c r="L24">
         <v>0.13300000000000001</v>
       </c>
+      <c r="AM24">
+        <v>17</v>
+      </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:43" x14ac:dyDescent="0.3">
+      <c r="AM25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H26">
+        <f>MAX(H6:H23)</f>
         <v>125</v>
       </c>
       <c r="I26">
+        <f>MAX(I6:I23)</f>
         <v>94</v>
       </c>
       <c r="J26">
@@ -4302,22 +5710,27 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26:L26" si="0">MIN(K6:K23)</f>
+        <f>MIN(K6:K23)</f>
         <v>121</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K26:L26" si="0">MIN(L6:L23)</f>
         <v>1</v>
       </c>
+      <c r="AM26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H27">
+        <f>MIN(H6:H23)</f>
         <v>27</v>
       </c>
       <c r="I27">
+        <f>MIN(I6:I23)</f>
         <v>54</v>
       </c>
       <c r="J27">
@@ -4332,10 +5745,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="AM27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <f>H26-H27</f>
@@ -4346,19 +5762,19 @@
         <v>40</v>
       </c>
       <c r="J28">
-        <f>ABS(J26-J27)</f>
-        <v>49</v>
+        <f>(J26-J27)</f>
+        <v>-49</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:L28" si="3">ABS(K26-K27)</f>
-        <v>275</v>
+        <f>(K26-K27)</f>
+        <v>-275</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>(L26-L27)</f>
+        <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>3</v>
       </c>
@@ -4366,49 +5782,46 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
         <v>22</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>23</v>
       </c>
-      <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>25</v>
-      </c>
       <c r="R29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T29" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <f>H$24*(H$26-H6)/H$28</f>
+        <f>H$24*((H$26-H6)/H$28)</f>
         <v>8.3673469387755106E-2</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="4">I$24*(I$26-I6)/I$28</f>
-        <v>0.12682500000000002</v>
+        <f t="shared" ref="I30:K30" si="3">I$24*((I$26-I6)/I$28)</f>
+        <v>0.12682499999999999</v>
       </c>
       <c r="J30">
-        <f>ABS(J$24*(J$26-J6)/J$28)</f>
+        <f t="shared" si="3"/>
         <v>0.46281632653061228</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:L30" si="5">ABS(K$24*(K$26-K6)/K$28)</f>
+        <f t="shared" si="3"/>
         <v>7.9920000000000005E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K30:L30" si="4">ABS(L$24*(L$26-L6)/L$28)</f>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="M30">
@@ -4423,33 +5836,30 @@
         <v>0.46281632653061228</v>
       </c>
       <c r="P30">
-        <f>N$21*(N30-N$50)/N$51+O$21*(O30-O$50)/O$51</f>
+        <f>(N$21*(N30-N$50)/N$51)+(O$21*(O30-O$50)/O$51)</f>
         <v>0.62910467701143613</v>
       </c>
       <c r="Q30">
-        <f>_xlfn.RANK.EQ(P30,P$30:P$47)+COUNTIF(P30,P$30:P$47)-1</f>
-        <v>6</v>
+        <f>_xlfn.RANK.EQ(P30,P$30:P$47,1)+COUNTIF(P$30:P$47,P30)-1</f>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
       <c r="S30">
-        <v>6</v>
-      </c>
-      <c r="T30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:I47" si="6">H$24*(H$26-H7)/H$28</f>
+        <f t="shared" ref="H31:H47" si="5">H$24*((H$26-H7)/H$28)</f>
         <v>0.1</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H31:I47" si="6">I$24*(I$26-I7)/I$28</f>
         <v>0.11347500000000002</v>
       </c>
       <c r="J31">
@@ -4457,48 +5867,55 @@
         <v>0.32669387755102047</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
-        <v>8.9607272727272744E-2</v>
+        <f t="shared" ref="K31" si="8">K$24*((K$26-K7)/K$28)</f>
+        <v>8.960727272727273E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L31" si="9">ABS(L$24*(L$26-L7)/L$28)</f>
         <v>2.6600000000000002E-2</v>
       </c>
       <c r="M31">
         <v>2</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N47" si="8">SUM(H31:L31)</f>
+        <f t="shared" ref="N31:N47" si="10">SUM(H31:L31)</f>
         <v>0.65637615027829321</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:O47" si="9">MAX(H31:L31)</f>
+        <f t="shared" ref="O31:O47" si="11">MAX(H31:L31)</f>
         <v>0.32669387755102047</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31:P47" si="10">N$21*(N31-N$50)/N$51+O$21*(O31-O$50)/O$51</f>
+        <f t="shared" ref="P31:P47" si="12">(N$21*(N31-N$50)/N$51)+(O$21*(O31-O$50)/O$51)</f>
         <v>0.37836774723476885</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31:Q47" si="11">_xlfn.RANK.EQ(P31,P$30:P$47)+COUNTIF(P31,P$30:P$47)-1</f>
+        <f t="shared" ref="Q31:Q47" si="13">_xlfn.RANK.EQ(P31,P$30:P$47,1)+COUNTIF(P$30:P$47,P31)-1</f>
+        <v>9</v>
+      </c>
+      <c r="R31">
         <v>10</v>
-      </c>
-      <c r="R31">
-        <v>8</v>
       </c>
       <c r="S31">
         <v>8</v>
       </c>
-      <c r="T31">
-        <v>10</v>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="I32">
@@ -4510,49 +5927,54 @@
         <v>0.25863265306122452</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K32" si="14">K$24*((K$26-K8)/K$28)</f>
         <v>0.18284727272727272</v>
       </c>
       <c r="L32">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L32" si="15">ABS(L$24*(L$26-L8)/L$28)</f>
         <v>7.980000000000001E-2</v>
       </c>
       <c r="M32">
         <v>3</v>
       </c>
       <c r="N32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.78135492578849719</v>
       </c>
       <c r="O32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.25863265306122452</v>
       </c>
       <c r="P32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.41001864561849755</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="R32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S32">
         <v>10</v>
       </c>
-      <c r="T32">
-        <v>9</v>
-      </c>
+      <c r="AN32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
-        <v>3.0612244897959183E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.0612244897959186E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="6"/>
@@ -4563,49 +5985,56 @@
         <v>0.21779591836734696</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K33" si="16">K$24*((K$26-K9)/K$28)</f>
         <v>0.13925454545454546</v>
       </c>
       <c r="L33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L33" si="17">ABS(L$24*(L$26-L9)/L$28)</f>
         <v>0.10640000000000001</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
       <c r="N33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54746270871985159</v>
       </c>
       <c r="O33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21779591836734696</v>
       </c>
       <c r="P33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18651870523719638</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="R33">
+        <v>12</v>
+      </c>
+      <c r="S33">
         <v>13</v>
       </c>
-      <c r="S33">
-        <v>12</v>
-      </c>
-      <c r="T33">
-        <v>15</v>
-      </c>
+      <c r="AN33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>0.92363261093911253</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="4"/>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
-        <v>6.3265306122448975E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.3265306122448989E-2</v>
       </c>
       <c r="I34">
         <f t="shared" si="6"/>
@@ -4616,48 +6045,57 @@
         <v>0.43559183673469393</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K34" si="18">K$24*((K$26-K10)/K$28)</f>
         <v>0.2010109090909091</v>
       </c>
       <c r="L34">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L34" si="19">ABS(L$24*(L$26-L10)/L$28)</f>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="M34">
         <v>5</v>
       </c>
       <c r="N34">
-        <f t="shared" si="8"/>
-        <v>0.88656805194805199</v>
+        <f t="shared" si="10"/>
+        <v>0.8865680519480521</v>
       </c>
       <c r="O34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.43559183673469393</v>
       </c>
       <c r="P34">
-        <f t="shared" si="10"/>
-        <v>0.66542826688887347</v>
+        <f t="shared" si="12"/>
+        <v>0.66542826688887358</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="R34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>4</v>
-      </c>
-      <c r="T34">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AN34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>-0.96078431372549022</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>-0.96697626418988658</v>
+      </c>
+      <c r="AQ34" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>6</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.6938775510204089E-2</v>
       </c>
       <c r="I35">
@@ -4669,48 +6107,45 @@
         <v>5.4448979591836741E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
-        <v>0.14651999999999998</v>
+        <f t="shared" ref="K35" si="20">K$24*((K$26-K11)/K$28)</f>
+        <v>0.14652000000000001</v>
       </c>
       <c r="L35">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L35" si="21">ABS(L$24*(L$26-L11)/L$28)</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="M35">
         <v>6</v>
       </c>
       <c r="N35">
-        <f t="shared" si="8"/>
-        <v>0.59450775510204079</v>
+        <f t="shared" si="10"/>
+        <v>0.5945077551020409</v>
       </c>
       <c r="O35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21360000000000001</v>
       </c>
       <c r="P35">
-        <f t="shared" si="10"/>
-        <v>0.21935457845347683</v>
+        <f t="shared" si="12"/>
+        <v>0.21935457845347694</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S35">
         <v>16</v>
       </c>
-      <c r="T35">
-        <v>14</v>
-      </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>7</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f>H$24*((H$26-H12)/H$28)</f>
         <v>8.7755102040816324E-2</v>
       </c>
       <c r="I36">
@@ -4722,49 +6157,46 @@
         <v>0.24502040816326531</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
-        <v>5.6912727272727281E-2</v>
+        <f t="shared" ref="K36" si="22">K$24*((K$26-K12)/K$28)</f>
+        <v>5.6912727272727275E-2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L36" si="23">ABS(L$24*(L$26-L12)/L$28)</f>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="M36">
         <v>7</v>
       </c>
       <c r="N36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.58306323747680888</v>
       </c>
       <c r="O36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.24502040816326531</v>
       </c>
       <c r="P36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.24105366232848813</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S36">
-        <v>14</v>
-      </c>
-      <c r="T36">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
-        <v>0.12653061224489795</v>
+        <f t="shared" si="5"/>
+        <v>0.12653061224489798</v>
       </c>
       <c r="I37">
         <f t="shared" si="6"/>
@@ -4775,49 +6207,46 @@
         <v>0.43559183673469393</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K37" si="24">K$24*((K$26-K13)/K$28)</f>
         <v>0.33300000000000002</v>
       </c>
       <c r="L37">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L37" si="25">ABS(L$24*(L$26-L13)/L$28)</f>
         <v>0.10640000000000001</v>
       </c>
       <c r="M37">
         <v>8</v>
       </c>
       <c r="N37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0148724489795919</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.43559183673469393</v>
       </c>
       <c r="P37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.76615556190886813</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
         <v>3</v>
       </c>
-      <c r="S37">
-        <v>5</v>
-      </c>
-      <c r="T37">
-        <v>4</v>
-      </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>9</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="5"/>
+        <v>0.14285714285714288</v>
       </c>
       <c r="I38">
         <f t="shared" si="6"/>
@@ -4828,49 +6257,46 @@
         <v>0.27224489795918366</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K38" si="26">K$24*((K$26-K14)/K$28)</f>
         <v>2.7850909090909093E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L38" si="27">ABS(L$24*(L$26-L14)/L$28)</f>
         <v>2.6600000000000002E-2</v>
       </c>
       <c r="M38">
         <v>9</v>
       </c>
       <c r="N38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.58302794990723572</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27224489795918366</v>
       </c>
       <c r="P38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.26761218628539246</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>13</v>
+      </c>
+      <c r="S38">
         <v>12</v>
       </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
-      <c r="S38">
-        <v>13</v>
-      </c>
-      <c r="T38">
-        <v>12</v>
-      </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>10</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
-        <v>0.1306122448979592</v>
+        <f t="shared" si="5"/>
+        <v>0.13061224489795917</v>
       </c>
       <c r="I39">
         <f t="shared" si="6"/>
@@ -4881,48 +6307,45 @@
         <v>0.16334693877551024</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K39" si="28">K$24*((K$26-K15)/K$28)</f>
         <v>1.9374545454545457E-2</v>
       </c>
       <c r="L39">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L39" si="29">ABS(L$24*(L$26-L15)/L$28)</f>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="M39">
         <v>10</v>
       </c>
       <c r="N39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.53340872912801485</v>
       </c>
       <c r="O39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.16687500000000002</v>
       </c>
       <c r="P39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12575831119085468</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S39">
-        <v>11</v>
-      </c>
-      <c r="T39">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>11</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.1224489795918373E-3</v>
       </c>
       <c r="I40">
@@ -4934,48 +6357,45 @@
         <v>0.24502040816326531</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K40" si="30">K$24*((K$26-K16)/K$28)</f>
         <v>2.5429090909090912E-2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L40" si="31">ABS(L$24*(L$26-L16)/L$28)</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="M40">
         <v>11</v>
       </c>
       <c r="N40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6765719480519482</v>
       </c>
       <c r="O40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26700000000000002</v>
       </c>
       <c r="P40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33592837350172899</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="R40">
         <v>11</v>
       </c>
-      <c r="R40">
-        <v>15</v>
-      </c>
       <c r="S40">
-        <v>15</v>
-      </c>
-      <c r="T40">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>12</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.10204081632653061</v>
       </c>
       <c r="I41">
@@ -4987,48 +6407,55 @@
         <v>0.32669387755102047</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
-        <v>9.0818181818181826E-2</v>
+        <f t="shared" ref="K41" si="32">K$24*((K$26-K17)/K$28)</f>
+        <v>9.0818181818181812E-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L41" si="33">ABS(L$24*(L$26-L17)/L$28)</f>
         <v>0.10640000000000001</v>
       </c>
       <c r="M41">
         <v>12</v>
       </c>
       <c r="N41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.87292787569573294</v>
       </c>
       <c r="O41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32669387755102047</v>
       </c>
       <c r="P41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.54837493356564193</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="R41">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S41">
         <v>9</v>
       </c>
-      <c r="T41">
-        <v>8</v>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO41" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>13</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.1836734693877556E-2</v>
       </c>
       <c r="I42">
@@ -5040,31 +6467,31 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K42" si="34">K$24*((K$26-K18)/K$28)</f>
         <v>0.15257454545454546</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L42" si="35">ABS(L$24*(L$26-L18)/L$28)</f>
         <v>0</v>
       </c>
       <c r="M42">
         <v>13</v>
       </c>
       <c r="N42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0248862801484231</v>
       </c>
       <c r="O42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="P42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -5072,17 +6499,22 @@
       <c r="S42">
         <v>1</v>
       </c>
-      <c r="T42">
+      <c r="AL42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM42" s="4">
         <v>1</v>
       </c>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>14</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
-        <v>8.1632653061224497E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.163265306122448E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="6"/>
@@ -5093,31 +6525,31 @@
         <v>0.44920408163265313</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K43" si="36">K$24*((K$26-K19)/K$28)</f>
         <v>3.2694545454545455E-2</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L43" si="37">ABS(L$24*(L$26-L19)/L$28)</f>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="M43">
         <v>14</v>
       </c>
       <c r="N43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.76353689239332101</v>
       </c>
       <c r="O43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.44920408163265313</v>
       </c>
       <c r="P43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.58213391969195161</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="R43">
         <v>9</v>
@@ -5125,16 +6557,23 @@
       <c r="S43">
         <v>7</v>
       </c>
-      <c r="T43">
-        <v>7</v>
-      </c>
+      <c r="AL43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>-0.96697626418988658</v>
+      </c>
+      <c r="AN43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="4"/>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>15</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I44">
@@ -5146,48 +6585,57 @@
         <v>2.722448979591837E-2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K44" si="38">K$24*((K$26-K20)/K$28)</f>
         <v>0.20948727272727274</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L44" si="39">ABS(L$24*(L$26-L20)/L$28)</f>
         <v>7.980000000000001E-2</v>
       </c>
       <c r="M44">
         <v>15</v>
       </c>
       <c r="N44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.48338676252319113</v>
       </c>
       <c r="O44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20948727272727274</v>
       </c>
       <c r="P44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12810106662513904</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="R44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S44">
         <v>17</v>
       </c>
-      <c r="T44">
-        <v>16</v>
+      <c r="AL44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM44" s="5">
+        <v>0.92363261093911253</v>
+      </c>
+      <c r="AN44" s="5">
+        <v>-0.96284829721362242</v>
+      </c>
+      <c r="AO44" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>16</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="I45">
@@ -5199,48 +6647,45 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K45" si="40">K$24*((K$26-K21)/K$28)</f>
         <v>0.15499636363636365</v>
       </c>
       <c r="L45">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L45" si="41">ABS(L$24*(L$26-L21)/L$28)</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="M45">
         <v>16</v>
       </c>
       <c r="N45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.38799636363636369</v>
       </c>
       <c r="O45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15499636363636365</v>
       </c>
       <c r="P45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R45">
         <v>18</v>
-      </c>
-      <c r="R45">
-        <v>17</v>
       </c>
       <c r="S45">
         <v>18</v>
       </c>
-      <c r="T45">
-        <v>18</v>
-      </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>17</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.2448979591836737E-2</v>
       </c>
       <c r="I46">
@@ -5252,49 +6697,46 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K46" si="42">K$24*((K$26-K22)/K$28)</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L46" si="43">ABS(L$24*(L$26-L22)/L$28)</f>
         <v>2.6600000000000002E-2</v>
       </c>
       <c r="M46">
         <v>17</v>
       </c>
       <c r="N46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.7560989795918367</v>
       </c>
       <c r="O46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="P46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.78898449042135455</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
         <v>4</v>
       </c>
-      <c r="S46">
-        <v>3</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:43" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>18</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
-        <v>0.12244897959183673</v>
+        <f t="shared" si="5"/>
+        <v>0.12244897959183675</v>
       </c>
       <c r="I47">
         <f t="shared" si="6"/>
@@ -5305,45 +6747,42 @@
         <v>0.57171428571428573</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
-        <v>0.17921454545454549</v>
+        <f t="shared" ref="K47" si="44">K$24*((K$26-K23)/K$28)</f>
+        <v>0.17921454545454546</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L47" si="45">ABS(L$24*(L$26-L23)/L$28)</f>
         <v>0</v>
       </c>
       <c r="M47">
         <v>18</v>
       </c>
       <c r="N47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.98017781076066801</v>
       </c>
       <c r="O47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.57171428571428573</v>
       </c>
       <c r="P47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.87184914976013372</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S47">
-        <v>2</v>
-      </c>
-      <c r="T47">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.3">
       <c r="M49" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <f>MAX(N30:N47)</f>
@@ -5356,7 +6795,7 @@
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.3">
       <c r="M50" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <f>MIN(N30:N47)</f>
@@ -5369,7 +6808,7 @@
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.3">
       <c r="M51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N51">
         <f>N49-N50</f>
@@ -5385,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.3">
@@ -5570,21 +7009,21 @@
     <row r="4" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5592,7 +7031,7 @@
     </row>
     <row r="6" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>-1.3415892672858618E-2</v>
@@ -5603,7 +7042,7 @@
     </row>
     <row r="7" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>-6.0887512899896808E-2</v>
@@ -5617,7 +7056,7 @@
     </row>
     <row r="8" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>-0.12074303405572756</v>
